--- a/Bike Sales Dashboard/Bike Sales Dashboard.xlsx
+++ b/Bike Sales Dashboard/Bike Sales Dashboard.xlsx
@@ -9,10 +9,10 @@
     <sheet state="visible" name="Dashboard" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_69A464C5_54AB_4D6B_AEE8_1BCA2C417883_.wvu.FilterData">'Cleaned Data'!$K$1:$K$1027</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_69A464C5_54AB_4D6B_AEE8_1BCA2C417883_.wvu.FilterData">'Pivot Table'!$A$32:$D$35</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_69A464C5_54AB_4D6B_AEE8_1BCA2C417883_.wvu.FilterData">'Pivot Table'!$A$2:$A$4</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_69A464C5_54AB_4D6B_AEE8_1BCA2C417883_.wvu.FilterData">'Pivot Table'!$A$17:$A$22</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_4272566A_ED17_414F_B4C7_7325DB676FBC_.wvu.FilterData">'Pivot Table'!$A$32:$D$35</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_4272566A_ED17_414F_B4C7_7325DB676FBC_.wvu.FilterData">'Pivot Table'!$A$25:$A$28</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_4272566A_ED17_414F_B4C7_7325DB676FBC_.wvu.FilterData">'Pivot Table'!$A$2:$A$4</definedName>
+    <definedName hidden="1" localSheetId="2" name="Z_4272566A_ED17_414F_B4C7_7325DB676FBC_.wvu.FilterData">'Pivot Table'!$A$17:$A$22</definedName>
     <definedName name="SlicerCache_Table_1_Col_1">#N/A</definedName>
     <definedName name="SlicerCache_Table_2_Col_1">#N/A</definedName>
     <definedName name="SlicerCache_Table_3_Col_1">#N/A</definedName>
@@ -20,14 +20,14 @@
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{69A464C5-54AB-4D6B-AEE8-1BCA2C417883}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4272566A-ED17-414F-B4C7-7325DB676FBC}" name="Filter 1"/>
   </customWorkbookViews>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="3pyTRWHwmE4YWOJ1ahp7+ihaOqUlFlTH1LdUII1sW7Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="mgPj2JX0qRM6JrYwTBLcU3aZrSyu13afO6Twbv9WleQ="/>
     </ext>
     <ext uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16264" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16275" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -190,6 +190,12 @@
   <si>
     <t>Bike Sales Dashboard</t>
   </si>
+  <si>
+    <t>Total Customers</t>
+  </si>
+  <si>
+    <t>Bike Owners</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -228,8 +234,33 @@
       <name val="Georgia"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17.0"/>
+      <color theme="0"/>
+      <name val="Georgia"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22.0"/>
+      <color theme="0"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <color theme="0"/>
+      <name val="Georgia"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +273,12 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -249,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -262,6 +299,16 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -375,11 +422,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="544237998"/>
-        <c:axId val="600074479"/>
+        <c:axId val="1040935408"/>
+        <c:axId val="55230422"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="544237998"/>
+        <c:axId val="1040935408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,10 +478,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600074479"/>
+        <c:crossAx val="55230422"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600074479"/>
+        <c:axId val="55230422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +556,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544237998"/>
+        <c:crossAx val="1040935408"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -631,11 +678,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1492160684"/>
-        <c:axId val="673667377"/>
+        <c:axId val="474426850"/>
+        <c:axId val="1553152009"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1492160684"/>
+        <c:axId val="474426850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,10 +734,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673667377"/>
+        <c:crossAx val="1553152009"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="673667377"/>
+        <c:axId val="1553152009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +812,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1492160684"/>
+        <c:crossAx val="474426850"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -886,11 +933,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1916020856"/>
-        <c:axId val="799964466"/>
+        <c:axId val="4511607"/>
+        <c:axId val="619559080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1916020856"/>
+        <c:axId val="4511607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,10 +989,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="799964466"/>
+        <c:crossAx val="619559080"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="799964466"/>
+        <c:axId val="619559080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,8 +1067,133 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1916020856"/>
+        <c:crossAx val="4511607"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="20303A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="798389"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="798389"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Bike Purchased By Region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Table'!$C$24:$C$25</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002F4A"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B85741"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AD8463"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Table'!$A$26:$A$29</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Table'!$C$26:$C$29</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1063,11 +1235,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2828925" cy="1790700"/>
+    <xdr:ext cx="2905125" cy="1790700"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1650618402" name="Chart 1" title="Chart"/>
@@ -1088,11 +1260,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5791200" cy="1790700"/>
+    <xdr:ext cx="5248275" cy="1790700"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="143491979" name="Chart 2" title="Chart"/>
@@ -1112,12 +1284,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2905125" cy="1790700"/>
+    <xdr:ext cx="3238500" cy="1790700"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="819913228" name="Chart 3" title="Chart"/>
@@ -1137,12 +1309,37 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2362200" cy="2857500"/>
+    <xdr:ext cx="3238500" cy="1790700"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2055817679" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1733550" cy="2857500"/>
     <mc:AlternateContent>
       <mc:Choice Requires="sle15">
         <xdr:graphicFrame>
@@ -1199,12 +1396,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2400300" cy="2857500"/>
+    <xdr:ext cx="2057400" cy="2857500"/>
     <mc:AlternateContent>
       <mc:Choice Requires="sle15">
         <xdr:graphicFrame>
@@ -1261,10 +1458,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2438400" cy="2857500"/>
     <mc:AlternateContent>
@@ -1324,11 +1521,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2438400" cy="2857500"/>
+    <xdr:ext cx="2009775" cy="2857500"/>
     <mc:AlternateContent>
       <mc:Choice Requires="sle15">
         <xdr:graphicFrame>
@@ -4955,6 +5152,1202 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 3" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
+  <location ref="A24:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields>
+    <pivotField name="ID" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
+        <item x="577"/>
+        <item x="578"/>
+        <item x="579"/>
+        <item x="580"/>
+        <item x="581"/>
+        <item x="582"/>
+        <item x="583"/>
+        <item x="584"/>
+        <item x="585"/>
+        <item x="586"/>
+        <item x="587"/>
+        <item x="588"/>
+        <item x="589"/>
+        <item x="590"/>
+        <item x="591"/>
+        <item x="592"/>
+        <item x="593"/>
+        <item x="594"/>
+        <item x="595"/>
+        <item x="596"/>
+        <item x="597"/>
+        <item x="598"/>
+        <item x="599"/>
+        <item x="600"/>
+        <item x="601"/>
+        <item x="602"/>
+        <item x="603"/>
+        <item x="604"/>
+        <item x="605"/>
+        <item x="606"/>
+        <item x="607"/>
+        <item x="608"/>
+        <item x="609"/>
+        <item x="610"/>
+        <item x="611"/>
+        <item x="612"/>
+        <item x="613"/>
+        <item x="614"/>
+        <item x="615"/>
+        <item x="616"/>
+        <item x="617"/>
+        <item x="618"/>
+        <item x="619"/>
+        <item x="620"/>
+        <item x="621"/>
+        <item x="622"/>
+        <item x="623"/>
+        <item x="624"/>
+        <item x="625"/>
+        <item x="626"/>
+        <item x="627"/>
+        <item x="628"/>
+        <item x="629"/>
+        <item x="630"/>
+        <item x="631"/>
+        <item x="632"/>
+        <item x="633"/>
+        <item x="634"/>
+        <item x="635"/>
+        <item x="636"/>
+        <item x="637"/>
+        <item x="638"/>
+        <item x="639"/>
+        <item x="640"/>
+        <item x="641"/>
+        <item x="642"/>
+        <item x="643"/>
+        <item x="644"/>
+        <item x="645"/>
+        <item x="646"/>
+        <item x="647"/>
+        <item x="648"/>
+        <item x="649"/>
+        <item x="650"/>
+        <item x="651"/>
+        <item x="652"/>
+        <item x="653"/>
+        <item x="654"/>
+        <item x="655"/>
+        <item x="656"/>
+        <item x="657"/>
+        <item x="658"/>
+        <item x="659"/>
+        <item x="660"/>
+        <item x="661"/>
+        <item x="662"/>
+        <item x="663"/>
+        <item x="664"/>
+        <item x="665"/>
+        <item x="666"/>
+        <item x="667"/>
+        <item x="668"/>
+        <item x="669"/>
+        <item x="670"/>
+        <item x="671"/>
+        <item x="672"/>
+        <item x="673"/>
+        <item x="674"/>
+        <item x="675"/>
+        <item x="676"/>
+        <item x="677"/>
+        <item x="678"/>
+        <item x="679"/>
+        <item x="680"/>
+        <item x="681"/>
+        <item x="682"/>
+        <item x="683"/>
+        <item x="684"/>
+        <item x="685"/>
+        <item x="686"/>
+        <item x="687"/>
+        <item x="688"/>
+        <item x="689"/>
+        <item x="690"/>
+        <item x="691"/>
+        <item x="692"/>
+        <item x="693"/>
+        <item x="694"/>
+        <item x="695"/>
+        <item x="696"/>
+        <item x="697"/>
+        <item x="698"/>
+        <item x="699"/>
+        <item x="700"/>
+        <item x="701"/>
+        <item x="702"/>
+        <item x="703"/>
+        <item x="704"/>
+        <item x="705"/>
+        <item x="706"/>
+        <item x="707"/>
+        <item x="708"/>
+        <item x="709"/>
+        <item x="710"/>
+        <item x="711"/>
+        <item x="712"/>
+        <item x="713"/>
+        <item x="714"/>
+        <item x="715"/>
+        <item x="716"/>
+        <item x="717"/>
+        <item x="718"/>
+        <item x="719"/>
+        <item x="720"/>
+        <item x="721"/>
+        <item x="722"/>
+        <item x="723"/>
+        <item x="724"/>
+        <item x="725"/>
+        <item x="726"/>
+        <item x="727"/>
+        <item x="728"/>
+        <item x="729"/>
+        <item x="730"/>
+        <item x="731"/>
+        <item x="732"/>
+        <item x="733"/>
+        <item x="734"/>
+        <item x="735"/>
+        <item x="736"/>
+        <item x="737"/>
+        <item x="738"/>
+        <item x="739"/>
+        <item x="740"/>
+        <item x="741"/>
+        <item x="742"/>
+        <item x="743"/>
+        <item x="744"/>
+        <item x="745"/>
+        <item x="746"/>
+        <item x="747"/>
+        <item x="748"/>
+        <item x="749"/>
+        <item x="750"/>
+        <item x="751"/>
+        <item x="752"/>
+        <item x="753"/>
+        <item x="754"/>
+        <item x="755"/>
+        <item x="756"/>
+        <item x="757"/>
+        <item x="758"/>
+        <item x="759"/>
+        <item x="760"/>
+        <item x="761"/>
+        <item x="762"/>
+        <item x="763"/>
+        <item x="764"/>
+        <item x="765"/>
+        <item x="766"/>
+        <item x="767"/>
+        <item x="768"/>
+        <item x="769"/>
+        <item x="770"/>
+        <item x="771"/>
+        <item x="772"/>
+        <item x="773"/>
+        <item x="774"/>
+        <item x="775"/>
+        <item x="776"/>
+        <item x="777"/>
+        <item x="778"/>
+        <item x="779"/>
+        <item x="780"/>
+        <item x="781"/>
+        <item x="782"/>
+        <item x="783"/>
+        <item x="784"/>
+        <item x="785"/>
+        <item x="786"/>
+        <item x="787"/>
+        <item x="788"/>
+        <item x="789"/>
+        <item x="790"/>
+        <item x="791"/>
+        <item x="792"/>
+        <item x="793"/>
+        <item x="794"/>
+        <item x="795"/>
+        <item x="796"/>
+        <item x="797"/>
+        <item x="798"/>
+        <item x="799"/>
+        <item x="800"/>
+        <item x="801"/>
+        <item x="802"/>
+        <item x="803"/>
+        <item x="804"/>
+        <item x="805"/>
+        <item x="806"/>
+        <item x="807"/>
+        <item x="808"/>
+        <item x="809"/>
+        <item x="810"/>
+        <item x="811"/>
+        <item x="812"/>
+        <item x="813"/>
+        <item x="814"/>
+        <item x="815"/>
+        <item x="816"/>
+        <item x="817"/>
+        <item x="818"/>
+        <item x="819"/>
+        <item x="820"/>
+        <item x="821"/>
+        <item x="822"/>
+        <item x="823"/>
+        <item x="824"/>
+        <item x="825"/>
+        <item x="826"/>
+        <item x="827"/>
+        <item x="828"/>
+        <item x="829"/>
+        <item x="830"/>
+        <item x="831"/>
+        <item x="832"/>
+        <item x="833"/>
+        <item x="834"/>
+        <item x="835"/>
+        <item x="836"/>
+        <item x="837"/>
+        <item x="838"/>
+        <item x="839"/>
+        <item x="840"/>
+        <item x="841"/>
+        <item x="842"/>
+        <item x="843"/>
+        <item x="844"/>
+        <item x="845"/>
+        <item x="846"/>
+        <item x="847"/>
+        <item x="848"/>
+        <item x="849"/>
+        <item x="850"/>
+        <item x="851"/>
+        <item x="852"/>
+        <item x="853"/>
+        <item x="854"/>
+        <item x="855"/>
+        <item x="856"/>
+        <item x="857"/>
+        <item x="858"/>
+        <item x="859"/>
+        <item x="860"/>
+        <item x="861"/>
+        <item x="862"/>
+        <item x="863"/>
+        <item x="864"/>
+        <item x="865"/>
+        <item x="866"/>
+        <item x="867"/>
+        <item x="868"/>
+        <item x="869"/>
+        <item x="870"/>
+        <item x="871"/>
+        <item x="872"/>
+        <item x="873"/>
+        <item x="874"/>
+        <item x="875"/>
+        <item x="876"/>
+        <item x="877"/>
+        <item x="878"/>
+        <item x="879"/>
+        <item x="880"/>
+        <item x="881"/>
+        <item x="882"/>
+        <item x="883"/>
+        <item x="884"/>
+        <item x="885"/>
+        <item x="886"/>
+        <item x="887"/>
+        <item x="888"/>
+        <item x="889"/>
+        <item x="890"/>
+        <item x="891"/>
+        <item x="892"/>
+        <item x="893"/>
+        <item x="894"/>
+        <item x="895"/>
+        <item x="896"/>
+        <item x="897"/>
+        <item x="898"/>
+        <item x="899"/>
+        <item x="900"/>
+        <item x="901"/>
+        <item x="902"/>
+        <item x="903"/>
+        <item x="904"/>
+        <item x="905"/>
+        <item x="906"/>
+        <item x="907"/>
+        <item x="908"/>
+        <item x="909"/>
+        <item x="910"/>
+        <item x="911"/>
+        <item x="912"/>
+        <item x="913"/>
+        <item x="914"/>
+        <item x="915"/>
+        <item x="916"/>
+        <item x="917"/>
+        <item x="918"/>
+        <item x="919"/>
+        <item x="920"/>
+        <item x="921"/>
+        <item x="922"/>
+        <item x="923"/>
+        <item x="924"/>
+        <item x="925"/>
+        <item x="926"/>
+        <item x="927"/>
+        <item x="928"/>
+        <item x="929"/>
+        <item x="930"/>
+        <item x="931"/>
+        <item x="932"/>
+        <item x="933"/>
+        <item x="934"/>
+        <item x="935"/>
+        <item x="936"/>
+        <item x="937"/>
+        <item x="938"/>
+        <item x="939"/>
+        <item x="940"/>
+        <item x="941"/>
+        <item x="942"/>
+        <item x="943"/>
+        <item x="944"/>
+        <item x="945"/>
+        <item x="946"/>
+        <item x="947"/>
+        <item x="948"/>
+        <item x="949"/>
+        <item x="950"/>
+        <item x="951"/>
+        <item x="952"/>
+        <item x="953"/>
+        <item x="954"/>
+        <item x="955"/>
+        <item x="956"/>
+        <item x="957"/>
+        <item x="958"/>
+        <item x="959"/>
+        <item x="960"/>
+        <item x="961"/>
+        <item x="962"/>
+        <item x="963"/>
+        <item x="964"/>
+        <item x="965"/>
+        <item x="966"/>
+        <item x="967"/>
+        <item x="968"/>
+        <item x="969"/>
+        <item x="970"/>
+        <item x="971"/>
+        <item x="972"/>
+        <item x="973"/>
+        <item x="974"/>
+        <item x="975"/>
+        <item x="976"/>
+        <item x="977"/>
+        <item x="978"/>
+        <item x="979"/>
+        <item x="980"/>
+        <item x="981"/>
+        <item x="982"/>
+        <item x="983"/>
+        <item x="984"/>
+        <item x="985"/>
+        <item x="986"/>
+        <item x="987"/>
+        <item x="988"/>
+        <item x="989"/>
+        <item x="990"/>
+        <item x="991"/>
+        <item x="992"/>
+        <item x="993"/>
+        <item x="994"/>
+        <item x="995"/>
+        <item x="996"/>
+        <item x="997"/>
+        <item x="998"/>
+        <item x="999"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Marital Status" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Gender" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Income" compact="0" numFmtId="165" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Children" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Education" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Occupation" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Home Owner" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Cars" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Commute Distance" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Region" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Age" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Age Bracket" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Purchased Bike" axis="axisCol" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields>
+    <field x="10"/>
+  </rowFields>
+  <colFields>
+    <field x="13"/>
+  </colFields>
+  <dataFields>
+    <dataField name="COUNTA of Purchased Bike" fld="13" subtotal="count" baseField="0"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Pivot Table 4" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A31:D35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields>
     <pivotField name="ID" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -6150,7 +7543,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<x14:slicerCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="SlicerCache_Table_1_Col_1" sourceName="Region">
+<x14:slicerCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="SlicerCache_Table_1_Col_1" sourceName="Gender">
   <x14:extLst>
     <ext uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="1" column="1"/>
@@ -6160,7 +7553,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<x14:slicerCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="SlicerCache_Table_2_Col_1" sourceName="Gender">
+<x14:slicerCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="SlicerCache_Table_2_Col_1" sourceName="Commute Distance">
   <x14:extLst>
     <ext uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="2" column="1"/>
@@ -6170,7 +7563,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<x14:slicerCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="SlicerCache_Table_3_Col_1" sourceName="Commute Distance">
+<x14:slicerCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="SlicerCache_Table_3_Col_1" sourceName="Region">
   <x14:extLst>
     <ext uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="3" column="1"/>
@@ -6191,25 +7584,15 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <x14:slicers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <x14:slicer name="Gender_1" cache="SlicerCache_Table_2_Col_1" caption="Gender" rowHeight="247650"/>
+  <x14:slicer name="Gender_1" cache="SlicerCache_Table_1_Col_1" caption="Gender" rowHeight="247650"/>
   <x14:slicer name="Age Bracket_2" cache="SlicerCache_Table_4_Col_1" caption="Age Bracket" rowHeight="247650"/>
-  <x14:slicer name="Commute Distance_3" cache="SlicerCache_Table_3_Col_1" caption="Commute Distance" rowHeight="247650"/>
-  <x14:slicer name="Region_4" cache="SlicerCache_Table_1_Col_1" caption="Region" rowHeight="247650"/>
+  <x14:slicer name="Commute Distance_3" cache="SlicerCache_Table_2_Col_1" caption="Commute Distance" rowHeight="247650"/>
+  <x14:slicer name="Region_4" cache="SlicerCache_Table_3_Col_1" caption="Region" rowHeight="247650"/>
 </x14:slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="K1:K1027" displayName="Table_1" name="Table_1" id="1">
-  <autoFilter ref="$K$1:$K$1027"/>
-  <tableColumns count="1">
-    <tableColumn name="Region" id="1"/>
-  </tableColumns>
-  <tableStyleInfo showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:A4" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:A4" displayName="Table_1" name="Table_1" id="1">
   <autoFilter ref="$A$2:$A$4"/>
   <tableColumns count="1">
     <tableColumn name="Gender" id="1"/>
@@ -6218,11 +7601,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A17:A22" displayName="Table_3" name="Table_3" id="3">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A17:A22" displayName="Table_2" name="Table_2" id="2">
   <autoFilter ref="$A$17:$A$22"/>
   <tableColumns count="1">
     <tableColumn name="Commute Distance" id="1"/>
+  </tableColumns>
+  <tableStyleInfo showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A25:A28" displayName="Table_3" name="Table_3" id="3">
+  <autoFilter ref="$A$25:$A$28"/>
+  <tableColumns count="1">
+    <tableColumn name="Region" id="1"/>
   </tableColumns>
   <tableStyleInfo showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="0"/>
 </table>
@@ -93703,20 +95096,7 @@
       <c r="D1027" s="5"/>
     </row>
   </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{69A464C5-54AB-4D6B-AEE8-1BCA2C417883}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$K$1:$K$1027"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1257073778"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-  </customSheetViews>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -93744,6 +95124,11 @@
     <row r="20"/>
     <row r="21"/>
     <row r="22"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
     <row r="31"/>
     <row r="32"/>
     <row r="33"/>
@@ -93751,7 +95136,7 @@
     <row r="35"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{69A464C5-54AB-4D6B-AEE8-1BCA2C417883}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4272566A-ED17-414F-B4C7-7325DB676FBC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$32:$D$35"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -93759,7 +95144,15 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{69A464C5-54AB-4D6B-AEE8-1BCA2C417883}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4272566A-ED17-414F-B4C7-7325DB676FBC}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$25:$A$28"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="168239029"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{4272566A-ED17-414F-B4C7-7325DB676FBC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$A$4"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -93767,7 +95160,7 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{69A464C5-54AB-4D6B-AEE8-1BCA2C417883}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4272566A-ED17-414F-B4C7-7325DB676FBC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$17:$A$22"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
@@ -93776,11 +95169,12 @@
       </extLst>
     </customSheetView>
   </customSheetViews>
-  <drawing r:id="rId4"/>
-  <tableParts count="3">
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+  <drawing r:id="rId5"/>
+  <tableParts count="4">
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -93799,10 +95193,40 @@
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="7">
+      <c r="H7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9" s="10">
+        <f>COUNTIF('Cleaned Data'!N2:N1001,"Yes") + COUNTIF('Cleaned Data'!N2:N1001,"No")</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="H14" s="10">
+        <f>COUNTIF('Cleaned Data'!N2:N1001,"Yes")</f>
+        <v>481</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:I3"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
   </mergeCells>
   <drawing r:id="rId1"/>
   <extLst>
